--- a/work-in-progress/Peppol Code Lists - Document types v8.8.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260EC26C-7435-4E25-932F-B07EE4ECC466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6534B923-F4D2-4656-9FBF-69CAD06E6ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="661">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -748,9 +748,6 @@
     <t>urn:kosit:names:spec:peppol-reporting:schema:xsd:Reporting-1::APData##Reporting::1.0</t>
   </si>
   <si>
-    <t>TICC-155</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:kosit:profile:reporting:1.0</t>
   </si>
   <si>
@@ -2067,6 +2064,13 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xeinkauf.de:kosit:xrechnung_3.0#conformant#urn:xeinkauf.de:kosit:extension:xrechnung_3.0::2.1</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>TICC-155
+TICC-304</t>
   </si>
 </sst>
 </file>
@@ -2729,8 +2733,8 @@
   <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C246" sqref="C246"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,22 +2765,22 @@
         <v>127</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>114</v>
@@ -2802,7 +2806,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F2" s="35">
         <v>2</v>
@@ -2836,7 +2840,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F3" s="35">
         <v>2</v>
@@ -2870,7 +2874,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F4" s="35">
         <v>2</v>
@@ -2904,7 +2908,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F5" s="35">
         <v>2</v>
@@ -2938,7 +2942,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F6" s="35">
         <v>2</v>
@@ -2972,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F7" s="35">
         <v>2</v>
@@ -3006,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F8" s="35">
         <v>7</v>
@@ -3040,7 +3044,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F9" s="35">
         <v>2</v>
@@ -3062,7 +3066,7 @@
     </row>
     <row r="10" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>56</v>
@@ -3074,14 +3078,14 @@
         <v>27</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F10" s="35">
         <v>3</v>
       </c>
       <c r="G10" s="36"/>
       <c r="H10" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I10" s="37" t="b">
         <f>TRUE</f>
@@ -3111,7 +3115,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F11" s="35">
         <v>7</v>
@@ -3145,7 +3149,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F12" s="35">
         <v>2</v>
@@ -3179,7 +3183,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F13" s="35">
         <v>7</v>
@@ -3213,7 +3217,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F14" s="35">
         <v>2</v>
@@ -3247,7 +3251,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F15" s="35">
         <v>2</v>
@@ -3281,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F16" s="35">
         <v>2</v>
@@ -3315,7 +3319,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F17" s="35">
         <v>7</v>
@@ -3349,7 +3353,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F18" s="35">
         <v>7</v>
@@ -3383,7 +3387,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F19" s="35">
         <v>7</v>
@@ -3417,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F20" s="35">
         <v>7</v>
@@ -3451,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F21" s="35">
         <v>7</v>
@@ -3485,7 +3489,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F22" s="35">
         <v>7</v>
@@ -3519,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F23" s="35">
         <v>7</v>
@@ -3553,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F24" s="35">
         <v>7</v>
@@ -3587,7 +3591,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F25" s="35">
         <v>2</v>
@@ -3619,7 +3623,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I26" s="5" t="b">
         <f>FALSE</f>
@@ -3646,7 +3650,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F27" s="35">
         <v>7</v>
@@ -3668,7 +3672,7 @@
     </row>
     <row r="28" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>56</v>
@@ -3680,14 +3684,14 @@
         <v>27</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F28" s="35">
         <v>3</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I28" s="37" t="b">
         <f>TRUE</f>
@@ -3717,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F29" s="35">
         <v>7</v>
@@ -3751,7 +3755,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F30" s="35">
         <v>7</v>
@@ -3785,7 +3789,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F31" s="35">
         <v>7</v>
@@ -3807,7 +3811,7 @@
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3819,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I32" s="5" t="b">
         <f>TRUE</f>
@@ -3837,7 +3841,7 @@
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3849,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I33" s="5" t="b">
         <f>TRUE</f>
@@ -3879,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I34" s="5" t="b">
         <f>FALSE</f>
@@ -3894,7 +3898,7 @@
     </row>
     <row r="35" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>56</v>
@@ -3906,14 +3910,14 @@
         <v>3</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I35" s="37" t="b">
         <f>FALSE</f>
@@ -3935,16 +3939,16 @@
         <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I36" s="5" t="b">
         <f>FALSE</f>
@@ -3959,7 +3963,7 @@
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3971,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I37" s="5" t="b">
         <f>TRUE</f>
@@ -3989,7 +3993,7 @@
     </row>
     <row r="38" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>56</v>
@@ -4001,14 +4005,14 @@
         <v>3</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I38" s="37" t="b">
         <f>TRUE</f>
@@ -4026,7 +4030,7 @@
     </row>
     <row r="39" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>56</v>
@@ -4038,14 +4042,14 @@
         <v>3</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G39" s="36"/>
       <c r="H39" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I39" s="37" t="b">
         <f>TRUE</f>
@@ -4063,7 +4067,7 @@
     </row>
     <row r="40" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>56</v>
@@ -4075,14 +4079,14 @@
         <v>3</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I40" s="37" t="b">
         <f>TRUE</f>
@@ -4100,7 +4104,7 @@
     </row>
     <row r="41" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>56</v>
@@ -4112,14 +4116,14 @@
         <v>3</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I41" s="37" t="b">
         <f>TRUE</f>
@@ -4137,7 +4141,7 @@
     </row>
     <row r="42" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>56</v>
@@ -4149,14 +4153,14 @@
         <v>3</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I42" s="37" t="b">
         <f>TRUE</f>
@@ -4174,7 +4178,7 @@
     </row>
     <row r="43" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>56</v>
@@ -4186,14 +4190,14 @@
         <v>3</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I43" s="37" t="b">
         <f>TRUE</f>
@@ -4223,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F44" s="18">
         <v>5</v>
@@ -4232,7 +4236,7 @@
         <v>45070</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I44" s="16" t="b">
         <f>FALSE</f>
@@ -4260,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F45" s="18">
         <v>5</v>
@@ -4269,7 +4273,7 @@
         <v>45070</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I45" s="16" t="b">
         <f>FALSE</f>
@@ -4297,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F46" s="18">
         <v>5</v>
@@ -4306,7 +4310,7 @@
         <v>45070</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I46" s="16" t="b">
         <f>FALSE</f>
@@ -4334,10 +4338,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I47" s="5" t="b">
         <f>FALSE</f>
@@ -4364,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I48" s="5" t="b">
         <f>FALSE</f>
@@ -4394,10 +4398,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I49" s="5" t="b">
         <f>FALSE</f>
@@ -4424,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I50" s="5" t="b">
         <f>FALSE</f>
@@ -4442,7 +4446,7 @@
     </row>
     <row r="51" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>56</v>
@@ -4454,7 +4458,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F51" s="35">
         <v>7</v>
@@ -4476,7 +4480,7 @@
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -4488,7 +4492,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I52" s="5" t="b">
         <f>TRUE</f>
@@ -4506,7 +4510,7 @@
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -4518,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I53" s="5" t="b">
         <f>TRUE</f>
@@ -4536,7 +4540,7 @@
     </row>
     <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -4548,10 +4552,10 @@
         <v>4</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
@@ -4564,12 +4568,12 @@
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -4581,7 +4585,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I55" s="5" t="b">
         <f>TRUE</f>
@@ -4599,7 +4603,7 @@
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -4611,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I56" s="5" t="b">
         <f>TRUE</f>
@@ -4629,7 +4633,7 @@
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -4641,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I57" s="5" t="b">
         <f>TRUE</f>
@@ -4659,7 +4663,7 @@
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -4671,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I58" s="5" t="b">
         <f>TRUE</f>
@@ -4689,7 +4693,7 @@
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -4701,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I59" s="5" t="b">
         <f>TRUE</f>
@@ -4719,7 +4723,7 @@
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -4731,7 +4735,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I60" s="5" t="b">
         <f>TRUE</f>
@@ -4761,7 +4765,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I61" s="5" t="b">
         <f>FALSE</f>
@@ -4788,7 +4792,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I62" s="5" t="b">
         <f>FALSE</f>
@@ -4803,7 +4807,7 @@
     </row>
     <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -4815,7 +4819,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I63" s="5" t="b">
         <f>TRUE</f>
@@ -4833,7 +4837,7 @@
     </row>
     <row r="64" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>56</v>
@@ -4845,14 +4849,14 @@
         <v>4</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F64" s="35">
         <v>6</v>
       </c>
       <c r="G64" s="36"/>
       <c r="H64" s="37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I64" s="37" t="b">
         <f>TRUE</f>
@@ -4870,7 +4874,7 @@
     </row>
     <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -4882,10 +4886,10 @@
         <v>6</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I65" s="5" t="b">
         <f>TRUE</f>
@@ -4915,16 +4919,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G66" s="19">
         <v>45070</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I66" s="16" t="b">
         <f>FALSE</f>
@@ -4952,16 +4956,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G67" s="19">
         <v>45070</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I67" s="16" t="b">
         <f>FALSE</f>
@@ -4989,16 +4993,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G68" s="19">
         <v>45070</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I68" s="16" t="b">
         <f>FALSE</f>
@@ -5026,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>215</v>
@@ -5056,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>216</v>
@@ -5086,7 +5090,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>217</v>
@@ -5104,7 +5108,7 @@
     </row>
     <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -5116,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>214</v>
@@ -5137,7 +5141,7 @@
     </row>
     <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -5149,7 +5153,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>214</v>
@@ -5182,10 +5186,10 @@
         <v>6</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I74" s="5" t="b">
         <f>FALSE</f>
@@ -5195,7 +5199,7 @@
         <v>117</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5212,10 +5216,10 @@
         <v>6</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I75" s="5" t="b">
         <f>FALSE</f>
@@ -5225,7 +5229,7 @@
         <v>117</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5242,16 +5246,16 @@
         <v>6</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G76" s="19">
         <v>45292</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I76" s="16" t="b">
         <f>FALSE</f>
@@ -5279,16 +5283,16 @@
         <v>6</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G77" s="19">
         <v>45292</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I77" s="16" t="b">
         <f>FALSE</f>
@@ -5316,7 +5320,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F78" s="21" t="s">
         <v>206</v>
@@ -5325,7 +5329,7 @@
         <v>45070</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I78" s="16" t="b">
         <f>FALSE</f>
@@ -5353,7 +5357,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F79" s="21" t="s">
         <v>206</v>
@@ -5362,7 +5366,7 @@
         <v>45070</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I79" s="16" t="b">
         <f>FALSE</f>
@@ -5390,7 +5394,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>206</v>
@@ -5399,7 +5403,7 @@
         <v>45070</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I80" s="16" t="b">
         <f>FALSE</f>
@@ -5427,7 +5431,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>213</v>
@@ -5457,7 +5461,7 @@
         <v>7</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>213</v>
@@ -5475,7 +5479,7 @@
     </row>
     <row r="83" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>56</v>
@@ -5487,16 +5491,16 @@
         <v>7</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G83" s="19">
         <v>45070</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I83" s="16" t="b">
         <f>FALSE</f>
@@ -5518,16 +5522,16 @@
         <v>56</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="E84" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="I84" s="5" t="b">
         <f>FALSE</f>
@@ -5554,7 +5558,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F85" s="21" t="s">
         <v>206</v>
@@ -5563,7 +5567,7 @@
         <v>45070</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I85" s="16" t="b">
         <f>FALSE</f>
@@ -5591,7 +5595,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F86" s="21" t="s">
         <v>206</v>
@@ -5600,7 +5604,7 @@
         <v>45070</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I86" s="16" t="b">
         <f>FALSE</f>
@@ -5628,7 +5632,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F87" s="21" t="s">
         <v>206</v>
@@ -5637,7 +5641,7 @@
         <v>45070</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I87" s="16" t="b">
         <f>FALSE</f>
@@ -5665,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>212</v>
@@ -5683,7 +5687,7 @@
     </row>
     <row r="89" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B89" s="32" t="s">
         <v>56</v>
@@ -5695,7 +5699,7 @@
         <v>7</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F89" s="41" t="s">
         <v>228</v>
@@ -5718,7 +5722,7 @@
     </row>
     <row r="90" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B90" s="32" t="s">
         <v>56</v>
@@ -5730,7 +5734,7 @@
         <v>7</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F90" s="41" t="s">
         <v>228</v>
@@ -5753,7 +5757,7 @@
     </row>
     <row r="91" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B91" s="32" t="s">
         <v>56</v>
@@ -5765,7 +5769,7 @@
         <v>7</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F91" s="41" t="s">
         <v>228</v>
@@ -5788,7 +5792,7 @@
     </row>
     <row r="92" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B92" s="32" t="s">
         <v>56</v>
@@ -5800,7 +5804,7 @@
         <v>7</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F92" s="41" t="s">
         <v>228</v>
@@ -5835,7 +5839,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>210</v>
@@ -5865,7 +5869,7 @@
         <v>7</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>210</v>
@@ -5895,7 +5899,7 @@
         <v>7</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>210</v>
@@ -5925,7 +5929,7 @@
         <v>206</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>209</v>
@@ -5955,7 +5959,7 @@
         <v>206</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>209</v>
@@ -5973,7 +5977,7 @@
     </row>
     <row r="98" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>56</v>
@@ -5985,16 +5989,16 @@
         <v>206</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G98" s="19">
         <v>45070</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I98" s="16" t="b">
         <f>FALSE</f>
@@ -6016,16 +6020,16 @@
         <v>56</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D99" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H99" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="E99" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="I99" s="5" t="b">
         <f>FALSE</f>
@@ -6052,10 +6056,10 @@
         <v>206</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I100" s="5" t="b">
         <f>FALSE</f>
@@ -6065,7 +6069,7 @@
         <v>117</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6082,7 +6086,7 @@
         <v>206</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>218</v>
@@ -6112,7 +6116,7 @@
         <v>227</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>225</v>
@@ -6128,31 +6132,39 @@
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" s="5" t="s">
+    <row r="103" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="29" t="s">
+      <c r="D103" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="E103" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H103" s="5" t="s">
+      <c r="E103" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="G103" s="19">
+        <v>45473</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="I103" s="16" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="I103" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="L103" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6163,16 +6175,16 @@
         <v>56</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D104" s="29" t="s">
         <v>228</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I104" s="5" t="b">
         <f>FALSE</f>
@@ -6182,7 +6194,7 @@
         <v>117</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6193,16 +6205,16 @@
         <v>56</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>228</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I105" s="5" t="b">
         <f>FALSE</f>
@@ -6223,16 +6235,16 @@
         <v>56</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>228</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I106" s="5" t="b">
         <f>FALSE</f>
@@ -6253,16 +6265,16 @@
         <v>56</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D107" s="29" t="s">
         <v>228</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I107" s="5" t="b">
         <f>FALSE</f>
@@ -6272,687 +6284,687 @@
         <v>117</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
         <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D108" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I108" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K108" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B109" t="s">
         <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D109" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H109" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I109" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K109" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B110" t="s">
         <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D110" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E110" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I110" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K110" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B111" t="s">
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D111" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E111" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I111" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K111" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B112" t="s">
         <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D112" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I112" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K112" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B113" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D113" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H113" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I113" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K113" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B114" t="s">
         <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D114" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E114" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I114" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K114" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B115" t="s">
         <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D115" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H115" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E115" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I115" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K115" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B116" t="s">
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D116" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E116" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I116" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K116" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B117" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D117" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H117" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I117" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K117" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D118" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H118" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E118" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I118" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K118" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B119" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D119" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E119" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I119" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K119" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B120" t="s">
         <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D120" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I120" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K120" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B121" t="s">
         <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D121" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H121" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I121" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K121" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B122" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D122" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H122" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I122" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K122" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B123" t="s">
         <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D123" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E123" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H123" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I123" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K123" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B124" t="s">
         <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D124" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E124" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H124" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E124" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I124" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K124" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B125" t="s">
         <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D125" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E125" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H125" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E125" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I125" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K125" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B126" t="s">
         <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D126" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E126" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I126" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K126" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B127" t="s">
         <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D127" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H127" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I127" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K127" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
         <v>56</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D128" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H128" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I128" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K128" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
         <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="D129" s="29" t="s">
+      <c r="E129" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="I129" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K129" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I130" s="5" t="b">
         <v>1</v>
@@ -6964,27 +6976,27 @@
         <v>116</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I131" s="5" t="b">
         <v>1</v>
@@ -6996,27 +7008,27 @@
         <v>116</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I132" s="5" t="b">
         <v>1</v>
@@ -7028,27 +7040,27 @@
         <v>116</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H133" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="D133" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="I133" s="5" t="b">
         <v>1</v>
@@ -7060,27 +7072,27 @@
         <v>116</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I134" s="5" t="b">
         <v>0</v>
@@ -7094,22 +7106,22 @@
     </row>
     <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D135" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I135" s="5" t="b">
         <v>0</v>
@@ -7123,22 +7135,22 @@
     </row>
     <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I136" s="5" t="b">
         <v>0</v>
@@ -7152,22 +7164,22 @@
     </row>
     <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I137" s="5" t="b">
         <v>0</v>
@@ -7181,22 +7193,22 @@
     </row>
     <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I138" s="5" t="b">
         <v>0</v>
@@ -7210,51 +7222,51 @@
     </row>
     <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D139" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H139" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I139" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L139" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="I139" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L139" s="5" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I140" s="5" t="b">
         <v>0</v>
@@ -7263,27 +7275,27 @@
         <v>117</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I141" s="5" t="b">
         <v>0</v>
@@ -7292,27 +7304,27 @@
         <v>117</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D142" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I142" s="5" t="b">
         <v>0</v>
@@ -7321,27 +7333,27 @@
         <v>117</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I143" s="5" t="b">
         <v>0</v>
@@ -7350,27 +7362,27 @@
         <v>117</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I144" s="5" t="b">
         <v>0</v>
@@ -7379,27 +7391,27 @@
         <v>117</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I145" s="5" t="b">
         <v>0</v>
@@ -7408,27 +7420,27 @@
         <v>117</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I146" s="5" t="b">
         <v>0</v>
@@ -7437,28 +7449,28 @@
         <v>117</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C147" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H147" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D147" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="I147" s="5" t="b">
         <v>0</v>
       </c>
@@ -7466,27 +7478,27 @@
         <v>117</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I148" s="5" t="b">
         <v>0</v>
@@ -7500,22 +7512,22 @@
     </row>
     <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D149" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I149" s="5" t="b">
         <v>0</v>
@@ -7529,22 +7541,22 @@
     </row>
     <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C150" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H150" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="D150" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H150" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="I150" s="5" t="b">
         <v>0</v>
@@ -7558,22 +7570,22 @@
     </row>
     <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E151" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I151" s="5" t="b">
         <v>0</v>
@@ -7587,22 +7599,22 @@
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E152" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I152" s="5" t="b">
         <v>0</v>
@@ -7616,22 +7628,22 @@
     </row>
     <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H153" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="D153" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>364</v>
       </c>
       <c r="I153" s="5" t="b">
         <v>0</v>
@@ -7645,23 +7657,23 @@
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C154" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H154" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D154" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E154" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="I154" s="5" t="b">
         <v>0</v>
       </c>
@@ -7669,56 +7681,56 @@
         <v>117</v>
       </c>
       <c r="L154" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H155" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L155" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="I155" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K155" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L155" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D156" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I156" s="5" t="b">
         <v>0</v>
@@ -7727,27 +7739,27 @@
         <v>117</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D157" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I157" s="5" t="b">
         <v>1</v>
@@ -7759,27 +7771,27 @@
         <v>116</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D158" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I158" s="5" t="b">
         <v>1</v>
@@ -7791,27 +7803,27 @@
         <v>116</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D159" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E159" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I159" s="5" t="b">
         <v>1</v>
@@ -7823,27 +7835,27 @@
         <v>116</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D160" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E160" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I160" s="5" t="b">
         <v>1</v>
@@ -7855,27 +7867,27 @@
         <v>116</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E161" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I161" s="5" t="b">
         <v>1</v>
@@ -7887,27 +7899,27 @@
         <v>116</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D162" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I162" s="5" t="b">
         <v>1</v>
@@ -7919,27 +7931,27 @@
         <v>116</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D163" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I163" s="5" t="b">
         <v>1</v>
@@ -7951,27 +7963,27 @@
         <v>116</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D164" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I164" s="5" t="b">
         <v>1</v>
@@ -7983,27 +7995,27 @@
         <v>116</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D165" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I165" s="5" t="b">
         <v>1</v>
@@ -8015,27 +8027,27 @@
         <v>116</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D166" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E166" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I166" s="5" t="b">
         <v>1</v>
@@ -8047,27 +8059,27 @@
         <v>116</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D167" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E167" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I167" s="5" t="b">
         <v>1</v>
@@ -8079,27 +8091,27 @@
         <v>116</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D168" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I168" s="5" t="b">
         <v>1</v>
@@ -8111,27 +8123,27 @@
         <v>116</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D169" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E169" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I169" s="5" t="b">
         <v>1</v>
@@ -8143,27 +8155,27 @@
         <v>116</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D170" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I170" s="5" t="b">
         <v>1</v>
@@ -8175,27 +8187,27 @@
         <v>116</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E171" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I171" s="5" t="b">
         <v>1</v>
@@ -8207,27 +8219,27 @@
         <v>116</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C172" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E172" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H172" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="D172" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E172" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="I172" s="5" t="b">
         <v>1</v>
@@ -8239,31 +8251,31 @@
         <v>116</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="1:12" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B173" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D173" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F173" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G173" s="36"/>
       <c r="H173" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I173" s="37" t="b">
         <v>1</v>
@@ -8275,27 +8287,27 @@
         <v>116</v>
       </c>
       <c r="L173" s="37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E174" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>1</v>
@@ -8307,27 +8319,27 @@
         <v>116</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D175" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E175" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I175" s="5" t="b">
         <v>0</v>
@@ -8341,22 +8353,22 @@
     </row>
     <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D176" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I176" s="5" t="b">
         <v>0</v>
@@ -8370,22 +8382,22 @@
     </row>
     <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E177" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I177" s="5" t="b">
         <v>0</v>
@@ -8399,22 +8411,22 @@
     </row>
     <row r="178" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D178" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E178" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I178" s="5" t="b">
         <v>0</v>
@@ -8428,22 +8440,22 @@
     </row>
     <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D179" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E179" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I179" s="5" t="b">
         <v>0</v>
@@ -8457,22 +8469,22 @@
     </row>
     <row r="180" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D180" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D180" s="29" t="s">
-        <v>434</v>
-      </c>
       <c r="E180" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I180" s="5" t="b">
         <v>0</v>
@@ -8486,90 +8498,90 @@
     </row>
     <row r="181" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B181" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D181" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F181" s="41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G181" s="36"/>
       <c r="H181" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I181" s="37" t="b">
         <v>1</v>
       </c>
       <c r="J181" s="34"/>
       <c r="K181" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L181" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B182" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D182" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F182" s="41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G182" s="36"/>
       <c r="H182" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I182" s="37" t="b">
         <v>1</v>
       </c>
       <c r="J182" s="34"/>
       <c r="K182" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L182" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D183" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E183" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>1</v>
@@ -8578,30 +8590,30 @@
         <v>1</v>
       </c>
       <c r="K183" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L183" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D184" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E184" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I184" s="5" t="b">
         <v>1</v>
@@ -8610,31 +8622,31 @@
         <v>1</v>
       </c>
       <c r="K184" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="L184" s="14" t="s">
         <v>451</v>
-      </c>
-      <c r="L184" s="14" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D185" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E185" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H185" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D185" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="E185" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>581</v>
-      </c>
       <c r="I185" s="5" t="b">
         <v>1</v>
       </c>
@@ -8642,59 +8654,59 @@
         <v>1</v>
       </c>
       <c r="K185" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L185" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="5" t="s">
+      <c r="D186" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="D186" s="28" t="s">
+      <c r="E186" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L186" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="E186" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="I186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K186" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L186" s="5" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H187" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="I187" s="5" t="b">
         <v>0</v>
@@ -8708,22 +8720,22 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>491</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H188" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="I188" s="5" t="b">
         <f>TRUE</f>
@@ -8741,22 +8753,22 @@
     </row>
     <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D189" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H189" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="D189" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>1</v>
@@ -8768,27 +8780,27 @@
         <v>117</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>1</v>
@@ -8800,27 +8812,27 @@
         <v>117</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D191" s="28" t="s">
         <v>499</v>
       </c>
-      <c r="D191" s="28" t="s">
-        <v>500</v>
-      </c>
       <c r="E191" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>1</v>
@@ -8832,27 +8844,27 @@
         <v>117</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D192" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H192" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="E192" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
@@ -8866,22 +8878,22 @@
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D193" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H193" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="E193" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
@@ -8895,22 +8907,22 @@
     </row>
     <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D194" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="D194" s="29" t="s">
+      <c r="E194" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H194" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="E194" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
@@ -8924,22 +8936,22 @@
     </row>
     <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C195" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H195" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="D195" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="E195" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
@@ -8953,22 +8965,22 @@
     </row>
     <row r="196" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
@@ -8982,22 +8994,22 @@
     </row>
     <row r="197" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D197" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I197" s="5" t="b">
         <v>0</v>
@@ -9011,22 +9023,22 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>528</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="D198" s="28" t="s">
+      <c r="E198" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H198" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="E198" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="I198" s="5" t="b">
         <f>TRUE</f>
@@ -9039,27 +9051,27 @@
         <v>117</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E199" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I199" s="5" t="b">
         <f>TRUE</f>
@@ -9072,27 +9084,27 @@
         <v>116</v>
       </c>
       <c r="L199" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C200" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H200" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="D200" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="E200" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="I200" s="5" t="b">
         <f>TRUE</f>
@@ -9105,27 +9117,27 @@
         <v>116</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E201" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I201" s="5" t="b">
         <f>TRUE</f>
@@ -9138,27 +9150,27 @@
         <v>116</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E202" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I202" s="5" t="b">
         <f>TRUE</f>
@@ -9171,27 +9183,27 @@
         <v>116</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E203" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I203" s="5" t="b">
         <v>1</v>
@@ -9203,27 +9215,27 @@
         <v>116</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E204" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I204" s="5" t="b">
         <v>1</v>
@@ -9235,27 +9247,27 @@
         <v>116</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E205" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I205" s="5" t="b">
         <v>1</v>
@@ -9267,27 +9279,27 @@
         <v>116</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E206" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I206" s="5" t="b">
         <v>1</v>
@@ -9299,27 +9311,27 @@
         <v>116</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>556</v>
-      </c>
       <c r="D207" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I207" s="5" t="b">
         <v>1</v>
@@ -9331,27 +9343,27 @@
         <v>116</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E208" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I208" s="5" t="b">
         <v>1</v>
@@ -9363,27 +9375,27 @@
         <v>116</v>
       </c>
       <c r="L208" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E209" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I209" s="5" t="b">
         <v>1</v>
@@ -9395,27 +9407,27 @@
         <v>116</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E210" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I210" s="5" t="b">
         <v>1</v>
@@ -9427,27 +9439,27 @@
         <v>116</v>
       </c>
       <c r="L210" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E211" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I211" s="5" t="b">
         <v>1</v>
@@ -9459,27 +9471,27 @@
         <v>116</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E212" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I212" s="5" t="b">
         <v>1</v>
@@ -9491,27 +9503,27 @@
         <v>116</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E213" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I213" s="5" t="b">
         <v>1</v>
@@ -9523,27 +9535,27 @@
         <v>116</v>
       </c>
       <c r="L213" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E214" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I214" s="5" t="b">
         <v>1</v>
@@ -9552,30 +9564,30 @@
         <v>1</v>
       </c>
       <c r="K214" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L214" s="43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E215" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I215" s="5" t="b">
         <v>1</v>
@@ -9584,30 +9596,30 @@
         <v>1</v>
       </c>
       <c r="K215" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L215" s="43" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E216" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I216" s="5" t="b">
         <v>1</v>
@@ -9616,30 +9628,30 @@
         <v>1</v>
       </c>
       <c r="K216" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L216" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E217" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I217" s="5" t="b">
         <v>1</v>
@@ -9648,30 +9660,30 @@
         <v>1</v>
       </c>
       <c r="K217" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L217" s="43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D218" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E218" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I218" s="5" t="b">
         <v>1</v>
@@ -9680,30 +9692,30 @@
         <v>1</v>
       </c>
       <c r="K218" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L218" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D219" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E219" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I219" s="5" t="b">
         <v>1</v>
@@ -9712,117 +9724,117 @@
         <v>1</v>
       </c>
       <c r="K219" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L219" s="43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" t="s">
         <v>602</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="D220" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E220" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H220" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="D220" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="E220" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H220" s="5" t="s">
+      <c r="I220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K220" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="L220" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="I220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K220" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="L220" s="5" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D221" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E221" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I221" s="5" t="b">
         <v>1</v>
       </c>
       <c r="K221" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L221" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D222" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E222" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H222" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C222" s="5" t="s">
+      <c r="I222" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K222" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="L222" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="D222" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="E222" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H222" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="I222" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K222" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="L222" s="5" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B223" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="D223" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E223" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H223" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="D223" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="E223" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H223" s="5" t="s">
-        <v>616</v>
       </c>
       <c r="I223" s="5" t="b">
         <v>1</v>
@@ -9834,27 +9846,27 @@
         <v>117</v>
       </c>
       <c r="L223" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C224" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B224" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>620</v>
-      </c>
       <c r="D224" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I224" s="5" t="b">
         <v>1</v>
@@ -9866,27 +9878,27 @@
         <v>117</v>
       </c>
       <c r="L224" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E225" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I225" s="5" t="b">
         <v>1</v>
@@ -9898,27 +9910,27 @@
         <v>117</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E226" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I226" s="5" t="b">
         <v>1</v>
@@ -9930,27 +9942,27 @@
         <v>117</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>528</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>530</v>
-      </c>
       <c r="D227" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I227" s="5" t="b">
         <v>0</v>
@@ -9962,27 +9974,27 @@
         <v>117</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>622</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D228" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I228" s="5" t="b">
         <v>0</v>
@@ -9994,27 +10006,27 @@
         <v>117</v>
       </c>
       <c r="L228" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>622</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="D229" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E229" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I229" s="5" t="b">
         <v>0</v>
@@ -10026,27 +10038,27 @@
         <v>117</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>626</v>
-      </c>
       <c r="D230" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E230" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I230" s="5" t="b">
         <v>1</v>
@@ -10058,27 +10070,27 @@
         <v>117</v>
       </c>
       <c r="L230" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>628</v>
-      </c>
       <c r="D231" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E231" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I231" s="5" t="b">
         <v>1</v>
@@ -10090,27 +10102,27 @@
         <v>117</v>
       </c>
       <c r="L231" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B232" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>630</v>
-      </c>
       <c r="D232" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E232" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I232" s="5" t="b">
         <v>0</v>
@@ -10122,27 +10134,27 @@
         <v>117</v>
       </c>
       <c r="L232" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B233" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" s="5" t="s">
+      <c r="D233" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E233" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H233" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="E233" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="I233" s="5" t="b">
         <v>0</v>
@@ -10154,27 +10166,27 @@
         <v>117</v>
       </c>
       <c r="L233" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C234" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>626</v>
-      </c>
       <c r="D234" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E234" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I234" s="5" t="b">
         <v>1</v>
@@ -10186,27 +10198,27 @@
         <v>117</v>
       </c>
       <c r="L234" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>628</v>
-      </c>
       <c r="D235" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E235" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I235" s="5" t="b">
         <v>1</v>
@@ -10218,27 +10230,27 @@
         <v>117</v>
       </c>
       <c r="L235" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C236" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>630</v>
-      </c>
       <c r="D236" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E236" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I236" s="5" t="b">
         <v>0</v>
@@ -10250,27 +10262,27 @@
         <v>117</v>
       </c>
       <c r="L236" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C237" s="5" t="s">
+      <c r="D237" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="E237" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H237" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="E237" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>633</v>
       </c>
       <c r="I237" s="5" t="b">
         <v>0</v>
@@ -10282,27 +10294,27 @@
         <v>117</v>
       </c>
       <c r="L237" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D238" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E238" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I238" s="5" t="b">
         <v>0</v>
@@ -10316,22 +10328,22 @@
     </row>
     <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D239" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E239" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I239" s="5" t="b">
         <v>0</v>
@@ -10345,22 +10357,22 @@
     </row>
     <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D240" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E240" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I240" s="5" t="b">
         <v>0</v>
@@ -10374,22 +10386,22 @@
     </row>
     <row r="241" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E241" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I241" s="5" t="b">
         <v>0</v>
@@ -10403,22 +10415,22 @@
     </row>
     <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E242" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I242" s="5" t="b">
         <v>0</v>
@@ -10432,22 +10444,22 @@
     </row>
     <row r="243" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D243" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E243" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I243" s="5" t="b">
         <v>0</v>
@@ -10461,22 +10473,22 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="E244" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H244" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="D244" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="E244" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="I244" s="5" t="b">
         <v>1</v>
@@ -10488,27 +10500,27 @@
         <v>117</v>
       </c>
       <c r="L244" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D245" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E245" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I245" s="5" t="b">
         <v>1</v>
@@ -10520,7 +10532,7 @@
         <v>117</v>
       </c>
       <c r="L245" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.8.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6534B923-F4D2-4656-9FBF-69CAD06E6ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45B871-85A7-4D72-B83D-6F2AC92349EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="670">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2071,6 +2071,33 @@
   <si>
     <t>TICC-155
 TICC-304</t>
+  </si>
+  <si>
+    <t>MY PINT Invoice v1.0</t>
+  </si>
+  <si>
+    <t>MY PINT Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>MY PINT Self-Billing Invoice v1.0</t>
+  </si>
+  <si>
+    <t>MY PINT Self-Billing Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:billing-1@my-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:billing-1@my-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:selfbilling-1@my-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:selfbilling-1@my-1::2.1</t>
+  </si>
+  <si>
+    <t>TICC-312</t>
   </si>
 </sst>
 </file>
@@ -2730,11 +2757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:L249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9737,7 +9764,7 @@
       <c r="B220" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="1" t="s">
         <v>602</v>
       </c>
       <c r="D220" s="28" t="s">
@@ -10533,6 +10560,134 @@
       </c>
       <c r="L245" s="5" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>661</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D246" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E246" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I246" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" s="24">
+        <v>3</v>
+      </c>
+      <c r="K246" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>662</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D247" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E247" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I247" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" s="24">
+        <v>3</v>
+      </c>
+      <c r="K247" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L247" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>663</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D248" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E248" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I248" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" s="24">
+        <v>3</v>
+      </c>
+      <c r="K248" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>664</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D249" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E249" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H249" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I249" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" s="24">
+        <v>3</v>
+      </c>
+      <c r="K249" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L249" s="5" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.8.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45B871-85A7-4D72-B83D-6F2AC92349EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253111BE-14E4-4C40-8BFF-9403C43F0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="671">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2098,6 +2098,9 @@
   </si>
   <si>
     <t>TICC-312</t>
+  </si>
+  <si>
+    <t>TICC-328</t>
   </si>
 </sst>
 </file>
@@ -2757,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L249"/>
+  <dimension ref="A1:L253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
@@ -10690,6 +10693,134 @@
         <v>532</v>
       </c>
     </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>661</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D250" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E250" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I250" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" s="24">
+        <v>3</v>
+      </c>
+      <c r="K250" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>662</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D251" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E251" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I251" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" s="24">
+        <v>3</v>
+      </c>
+      <c r="K251" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L251" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>663</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D252" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E252" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I252" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" s="24">
+        <v>3</v>
+      </c>
+      <c r="K252" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>664</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="E253" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I253" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" s="24">
+        <v>3</v>
+      </c>
+      <c r="K253" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L253" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L245" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.8.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253111BE-14E4-4C40-8BFF-9403C43F0C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC481FE9-2EE5-48A1-8E47-A41C5278975C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$M$253</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="672">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2101,6 +2101,9 @@
   </si>
   <si>
     <t>TICC-328</t>
+  </si>
+  <si>
+    <t>Abstract?</t>
   </si>
 </sst>
 </file>
@@ -2760,11 +2763,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L253"/>
+  <dimension ref="A1:M253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A250" sqref="A250"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,14 +2780,15 @@
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="24"/>
-    <col min="11" max="11" width="19.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="81.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="5"/>
+    <col min="9" max="9" width="13.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="24"/>
+    <col min="12" max="12" width="19.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="81.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
@@ -2810,19 +2814,22 @@
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
@@ -2843,20 +2850,23 @@
       </c>
       <c r="G2" s="36"/>
       <c r="I2" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J2" s="34">
-        <v>1</v>
-      </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="34">
+        <v>1</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
@@ -2877,20 +2887,23 @@
       </c>
       <c r="G3" s="36"/>
       <c r="I3" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J3" s="34">
-        <v>1</v>
-      </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="34">
+        <v>1</v>
+      </c>
+      <c r="L3" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="M3" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
@@ -2911,20 +2924,23 @@
       </c>
       <c r="G4" s="36"/>
       <c r="I4" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J4" s="34">
-        <v>1</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="34">
+        <v>1</v>
+      </c>
+      <c r="L4" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>100</v>
       </c>
@@ -2945,20 +2961,23 @@
       </c>
       <c r="G5" s="36"/>
       <c r="I5" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J5" s="34">
-        <v>1</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="37" t="s">
+      <c r="K5" s="34">
+        <v>1</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>103</v>
       </c>
@@ -2979,20 +2998,23 @@
       </c>
       <c r="G6" s="36"/>
       <c r="I6" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J6" s="34">
-        <v>1</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L6" s="37" t="s">
+      <c r="K6" s="34">
+        <v>1</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>103</v>
       </c>
@@ -3013,20 +3035,23 @@
       </c>
       <c r="G7" s="36"/>
       <c r="I7" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J7" s="34">
-        <v>1</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L7" s="37" t="s">
+      <c r="K7" s="34">
+        <v>1</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>36</v>
       </c>
@@ -3047,20 +3072,23 @@
       </c>
       <c r="G8" s="36"/>
       <c r="I8" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J8" s="34">
-        <v>1</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="37" t="s">
+      <c r="K8" s="34">
+        <v>1</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>28</v>
       </c>
@@ -3081,20 +3109,23 @@
       </c>
       <c r="G9" s="36"/>
       <c r="I9" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J9" s="34">
-        <v>1</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="37" t="s">
+      <c r="K9" s="34">
+        <v>1</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>349</v>
       </c>
@@ -3118,20 +3149,23 @@
         <v>348</v>
       </c>
       <c r="I10" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J10" s="34">
+      <c r="K10" s="34">
         <v>2</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>29</v>
       </c>
@@ -3152,20 +3186,23 @@
       </c>
       <c r="G11" s="36"/>
       <c r="I11" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J11" s="34">
+      <c r="K11" s="34">
         <v>2</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>25</v>
       </c>
@@ -3186,20 +3223,23 @@
       </c>
       <c r="G12" s="36"/>
       <c r="I12" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J12" s="34">
-        <v>1</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" s="37" t="s">
+      <c r="K12" s="34">
+        <v>1</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>26</v>
       </c>
@@ -3220,20 +3260,23 @@
       </c>
       <c r="G13" s="36"/>
       <c r="I13" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J13" s="34">
+      <c r="K13" s="34">
         <v>2</v>
       </c>
-      <c r="K13" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>101</v>
       </c>
@@ -3254,20 +3297,23 @@
       </c>
       <c r="G14" s="36"/>
       <c r="I14" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J14" s="34">
-        <v>1</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L14" s="37" t="s">
+      <c r="K14" s="34">
+        <v>1</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>102</v>
       </c>
@@ -3288,20 +3334,23 @@
       </c>
       <c r="G15" s="36"/>
       <c r="I15" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J15" s="34">
-        <v>1</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="37" t="s">
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>101</v>
       </c>
@@ -3322,20 +3371,23 @@
       </c>
       <c r="G16" s="36"/>
       <c r="I16" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J16" s="34">
-        <v>1</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="37" t="s">
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>91</v>
       </c>
@@ -3356,20 +3408,23 @@
       </c>
       <c r="G17" s="36"/>
       <c r="I17" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J17" s="34">
+      <c r="K17" s="34">
         <v>2</v>
       </c>
-      <c r="K17" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>92</v>
       </c>
@@ -3390,20 +3445,23 @@
       </c>
       <c r="G18" s="36"/>
       <c r="I18" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J18" s="34">
+      <c r="K18" s="34">
         <v>2</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>96</v>
       </c>
@@ -3424,20 +3482,23 @@
       </c>
       <c r="G19" s="36"/>
       <c r="I19" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J19" s="34">
-        <v>1</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="37" t="s">
+      <c r="K19" s="34">
+        <v>1</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>97</v>
       </c>
@@ -3458,20 +3519,23 @@
       </c>
       <c r="G20" s="36"/>
       <c r="I20" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J20" s="34">
-        <v>1</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="37" t="s">
+      <c r="K20" s="34">
+        <v>1</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>97</v>
       </c>
@@ -3492,20 +3556,23 @@
       </c>
       <c r="G21" s="36"/>
       <c r="I21" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J21" s="34">
-        <v>1</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" s="37" t="s">
+      <c r="K21" s="34">
+        <v>1</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M21" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>98</v>
       </c>
@@ -3526,20 +3593,23 @@
       </c>
       <c r="G22" s="36"/>
       <c r="I22" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J22" s="34">
-        <v>1</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L22" s="37" t="s">
+      <c r="K22" s="34">
+        <v>1</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>99</v>
       </c>
@@ -3560,20 +3630,23 @@
       </c>
       <c r="G23" s="36"/>
       <c r="I23" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J23" s="34">
-        <v>1</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="37" t="s">
+      <c r="K23" s="34">
+        <v>1</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>98</v>
       </c>
@@ -3594,20 +3667,23 @@
       </c>
       <c r="G24" s="36"/>
       <c r="I24" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J24" s="34">
-        <v>1</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L24" s="37" t="s">
+      <c r="K24" s="34">
+        <v>1</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>34</v>
       </c>
@@ -3628,18 +3704,21 @@
       </c>
       <c r="G25" s="36"/>
       <c r="I25" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="37" t="s">
+      <c r="K25" s="34"/>
+      <c r="L25" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -3656,17 +3735,20 @@
         <v>367</v>
       </c>
       <c r="I26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K26" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>94</v>
       </c>
@@ -3687,20 +3769,23 @@
       </c>
       <c r="G27" s="36"/>
       <c r="I27" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J27" s="34">
-        <v>1</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="37" t="s">
+      <c r="K27" s="34">
+        <v>1</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>346</v>
       </c>
@@ -3724,20 +3809,23 @@
         <v>347</v>
       </c>
       <c r="I28" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J28" s="34">
-        <v>1</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" s="37" t="s">
+      <c r="K28" s="34">
+        <v>1</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>95</v>
       </c>
@@ -3758,20 +3846,23 @@
       </c>
       <c r="G29" s="36"/>
       <c r="I29" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J29" s="34">
-        <v>1</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L29" s="37" t="s">
+      <c r="K29" s="34">
+        <v>1</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>39</v>
       </c>
@@ -3792,20 +3883,23 @@
       </c>
       <c r="G30" s="36"/>
       <c r="I30" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J30" s="34">
-        <v>1</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L30" s="37" t="s">
+      <c r="K30" s="34">
+        <v>1</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>40</v>
       </c>
@@ -3826,20 +3920,23 @@
       </c>
       <c r="G31" s="36"/>
       <c r="I31" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J31" s="34">
-        <v>1</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L31" s="37" t="s">
+      <c r="K31" s="34">
+        <v>1</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="37" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>469</v>
       </c>
@@ -3856,20 +3953,23 @@
         <v>367</v>
       </c>
       <c r="I32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J32" s="24">
+      <c r="K32" s="24">
         <v>3</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>470</v>
       </c>
@@ -3886,20 +3986,23 @@
         <v>367</v>
       </c>
       <c r="I33" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J33" s="24">
+      <c r="K33" s="24">
         <v>3</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M33" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -3916,17 +4019,20 @@
         <v>367</v>
       </c>
       <c r="I34" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M34" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>343</v>
       </c>
@@ -3950,18 +4056,21 @@
         <v>345</v>
       </c>
       <c r="I35" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L35" s="37" t="s">
+      <c r="K35" s="34"/>
+      <c r="L35" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M35" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>125</v>
       </c>
@@ -3981,17 +4090,20 @@
         <v>341</v>
       </c>
       <c r="I36" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M36" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>471</v>
       </c>
@@ -4008,20 +4120,23 @@
         <v>367</v>
       </c>
       <c r="I37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J37" s="24">
+      <c r="K37" s="24">
         <v>3</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>487</v>
       </c>
@@ -4045,20 +4160,23 @@
         <v>537</v>
       </c>
       <c r="I38" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J38" s="34">
-        <v>1</v>
-      </c>
-      <c r="K38" s="34" t="s">
+      <c r="K38" s="34">
+        <v>1</v>
+      </c>
+      <c r="L38" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L38" s="37" t="s">
+      <c r="M38" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>486</v>
       </c>
@@ -4082,20 +4200,23 @@
         <v>537</v>
       </c>
       <c r="I39" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J39" s="34">
-        <v>1</v>
-      </c>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="34">
+        <v>1</v>
+      </c>
+      <c r="L39" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="37" t="s">
+      <c r="M39" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>485</v>
       </c>
@@ -4119,20 +4240,23 @@
         <v>537</v>
       </c>
       <c r="I40" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J40" s="34">
-        <v>1</v>
-      </c>
-      <c r="K40" s="34" t="s">
+      <c r="K40" s="34">
+        <v>1</v>
+      </c>
+      <c r="L40" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L40" s="37" t="s">
+      <c r="M40" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>484</v>
       </c>
@@ -4156,20 +4280,23 @@
         <v>537</v>
       </c>
       <c r="I41" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J41" s="34">
-        <v>1</v>
-      </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="34">
+        <v>1</v>
+      </c>
+      <c r="L41" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L41" s="37" t="s">
+      <c r="M41" s="37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>483</v>
       </c>
@@ -4193,20 +4320,23 @@
         <v>537</v>
       </c>
       <c r="I42" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J42" s="34">
-        <v>1</v>
-      </c>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="34">
+        <v>1</v>
+      </c>
+      <c r="L42" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L42" s="37" t="s">
+      <c r="M42" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>482</v>
       </c>
@@ -4230,20 +4360,23 @@
         <v>537</v>
       </c>
       <c r="I43" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J43" s="34">
-        <v>1</v>
-      </c>
-      <c r="K43" s="34" t="s">
+      <c r="K43" s="34">
+        <v>1</v>
+      </c>
+      <c r="L43" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L43" s="37" t="s">
+      <c r="M43" s="37" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>104</v>
       </c>
@@ -4269,18 +4402,21 @@
         <v>505</v>
       </c>
       <c r="I44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L44" s="20" t="s">
+      <c r="K44" s="25"/>
+      <c r="L44" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>105</v>
       </c>
@@ -4306,18 +4442,21 @@
         <v>505</v>
       </c>
       <c r="I45" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L45" s="20" t="s">
+      <c r="K45" s="25"/>
+      <c r="L45" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>106</v>
       </c>
@@ -4343,18 +4482,21 @@
         <v>505</v>
       </c>
       <c r="I46" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="20" t="s">
+      <c r="K46" s="25"/>
+      <c r="L46" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M46" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -4374,17 +4516,20 @@
         <v>420</v>
       </c>
       <c r="I47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K47" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M47" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -4404,17 +4549,20 @@
         <v>420</v>
       </c>
       <c r="I48" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K48" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M48" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -4434,17 +4582,20 @@
         <v>421</v>
       </c>
       <c r="I49" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K49" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -4464,17 +4615,20 @@
         <v>421</v>
       </c>
       <c r="I50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K50" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M50" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>459</v>
       </c>
@@ -4495,20 +4649,23 @@
       </c>
       <c r="G51" s="36"/>
       <c r="I51" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J51" s="34">
-        <v>1</v>
-      </c>
-      <c r="K51" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L51" s="37" t="s">
+      <c r="K51" s="34">
+        <v>1</v>
+      </c>
+      <c r="L51" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M51" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>460</v>
       </c>
@@ -4525,20 +4682,23 @@
         <v>367</v>
       </c>
       <c r="I52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J52" s="24">
+      <c r="K52" s="24">
         <v>3</v>
       </c>
-      <c r="K52" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M52" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>461</v>
       </c>
@@ -4555,20 +4715,23 @@
         <v>367</v>
       </c>
       <c r="I53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J53" s="24">
+      <c r="K53" s="24">
         <v>3</v>
       </c>
-      <c r="K53" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>462</v>
       </c>
@@ -4588,20 +4751,23 @@
         <v>495</v>
       </c>
       <c r="I54" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J54" s="24">
+      <c r="K54" s="24">
         <v>3</v>
       </c>
-      <c r="K54" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M54" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>463</v>
       </c>
@@ -4618,20 +4784,23 @@
         <v>367</v>
       </c>
       <c r="I55" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J55" s="24">
+      <c r="K55" s="24">
         <v>3</v>
       </c>
-      <c r="K55" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L55" s="7" t="s">
+      <c r="L55" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M55" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>465</v>
       </c>
@@ -4648,20 +4817,23 @@
         <v>367</v>
       </c>
       <c r="I56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J56" s="24">
+      <c r="K56" s="24">
         <v>3</v>
       </c>
-      <c r="K56" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M56" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>464</v>
       </c>
@@ -4678,20 +4850,23 @@
         <v>367</v>
       </c>
       <c r="I57" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J57" s="24">
+      <c r="K57" s="24">
         <v>3</v>
       </c>
-      <c r="K57" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L57" s="7" t="s">
+      <c r="L57" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M57" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>466</v>
       </c>
@@ -4708,20 +4883,23 @@
         <v>367</v>
       </c>
       <c r="I58" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J58" s="24">
+      <c r="K58" s="24">
         <v>3</v>
       </c>
-      <c r="K58" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M58" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>467</v>
       </c>
@@ -4738,20 +4916,23 @@
         <v>367</v>
       </c>
       <c r="I59" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J59" s="24">
+      <c r="K59" s="24">
         <v>3</v>
       </c>
-      <c r="K59" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L59" s="7" t="s">
+      <c r="L59" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M59" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>468</v>
       </c>
@@ -4768,20 +4949,23 @@
         <v>367</v>
       </c>
       <c r="I60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J60" s="24">
+      <c r="K60" s="24">
         <v>3</v>
       </c>
-      <c r="K60" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M60" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -4798,17 +4982,20 @@
         <v>367</v>
       </c>
       <c r="I61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K61" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L61" s="7" t="s">
+      <c r="L61" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M61" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>81</v>
       </c>
@@ -4825,17 +5012,20 @@
         <v>367</v>
       </c>
       <c r="I62" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K62" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L62" s="7" t="s">
+      <c r="L62" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M62" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>472</v>
       </c>
@@ -4852,20 +5042,23 @@
         <v>367</v>
       </c>
       <c r="I63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J63" s="24">
+      <c r="K63" s="24">
         <v>3</v>
       </c>
-      <c r="K63" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L63" s="7" t="s">
+      <c r="L63" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
         <v>344</v>
       </c>
@@ -4889,20 +5082,23 @@
         <v>418</v>
       </c>
       <c r="I64" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="37" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J64" s="34">
+      <c r="K64" s="34">
         <v>3</v>
       </c>
-      <c r="K64" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L64" s="40" t="s">
+      <c r="L64" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M64" s="40" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>473</v>
       </c>
@@ -4922,20 +5118,23 @@
         <v>419</v>
       </c>
       <c r="I65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J65" s="24">
+      <c r="K65" s="24">
         <v>3</v>
       </c>
-      <c r="K65" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L65" s="7" t="s">
+      <c r="L65" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M65" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>85</v>
       </c>
@@ -4961,18 +5160,21 @@
         <v>506</v>
       </c>
       <c r="I66" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L66" s="20" t="s">
+      <c r="K66" s="25"/>
+      <c r="L66" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M66" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>86</v>
       </c>
@@ -4998,18 +5200,21 @@
         <v>506</v>
       </c>
       <c r="I67" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" s="20" t="s">
+      <c r="K67" s="25"/>
+      <c r="L67" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M67" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>87</v>
       </c>
@@ -5035,18 +5240,21 @@
         <v>506</v>
       </c>
       <c r="I68" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L68" s="20" t="s">
+      <c r="K68" s="25"/>
+      <c r="L68" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M68" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>107</v>
       </c>
@@ -5066,17 +5274,20 @@
         <v>215</v>
       </c>
       <c r="I69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K69" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L69" s="7" t="s">
+      <c r="L69" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M69" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>108</v>
       </c>
@@ -5096,17 +5307,20 @@
         <v>216</v>
       </c>
       <c r="I70" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K70" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L70" s="7" t="s">
+      <c r="L70" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M70" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>112</v>
       </c>
@@ -5126,17 +5340,20 @@
         <v>217</v>
       </c>
       <c r="I71" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K71" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M71" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>474</v>
       </c>
@@ -5156,20 +5373,23 @@
         <v>214</v>
       </c>
       <c r="I72" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J72" s="24">
+      <c r="K72" s="24">
         <v>3</v>
       </c>
-      <c r="K72" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M72" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>475</v>
       </c>
@@ -5189,20 +5409,23 @@
         <v>214</v>
       </c>
       <c r="I73" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J73" s="24">
+      <c r="K73" s="24">
         <v>3</v>
       </c>
-      <c r="K73" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L73" s="7" t="s">
+      <c r="L73" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M73" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
@@ -5222,17 +5445,20 @@
         <v>250</v>
       </c>
       <c r="I74" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K74" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M74" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>119</v>
       </c>
@@ -5252,17 +5478,20 @@
         <v>250</v>
       </c>
       <c r="I75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K75" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M75" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>161</v>
       </c>
@@ -5288,18 +5517,21 @@
         <v>634</v>
       </c>
       <c r="I76" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L76" s="20" t="s">
+      <c r="K76" s="25"/>
+      <c r="L76" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M76" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>164</v>
       </c>
@@ -5325,18 +5557,21 @@
         <v>634</v>
       </c>
       <c r="I77" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L77" s="20" t="s">
+      <c r="K77" s="25"/>
+      <c r="L77" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M77" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>166</v>
       </c>
@@ -5362,18 +5597,21 @@
         <v>507</v>
       </c>
       <c r="I78" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L78" s="20" t="s">
+      <c r="K78" s="25"/>
+      <c r="L78" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M78" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>167</v>
       </c>
@@ -5399,18 +5637,21 @@
         <v>507</v>
       </c>
       <c r="I79" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L79" s="20" t="s">
+      <c r="K79" s="25"/>
+      <c r="L79" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M79" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>168</v>
       </c>
@@ -5436,18 +5677,21 @@
         <v>507</v>
       </c>
       <c r="I80" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L80" s="20" t="s">
+      <c r="K80" s="25"/>
+      <c r="L80" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M80" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>171</v>
       </c>
@@ -5467,17 +5711,20 @@
         <v>213</v>
       </c>
       <c r="I81" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K81" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L81" s="7" t="s">
+      <c r="L81" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M81" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>172</v>
       </c>
@@ -5497,17 +5744,20 @@
         <v>213</v>
       </c>
       <c r="I82" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K82" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L82" s="7" t="s">
+      <c r="L82" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M82" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>241</v>
       </c>
@@ -5533,18 +5783,21 @@
         <v>508</v>
       </c>
       <c r="I83" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L83" s="20" t="s">
+      <c r="K83" s="25"/>
+      <c r="L83" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M83" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>173</v>
       </c>
@@ -5564,17 +5817,20 @@
         <v>244</v>
       </c>
       <c r="I84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K84" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L84" s="7" t="s">
+      <c r="L84" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M84" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>176</v>
       </c>
@@ -5600,18 +5856,21 @@
         <v>510</v>
       </c>
       <c r="I85" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L85" s="20" t="s">
+      <c r="K85" s="25"/>
+      <c r="L85" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M85" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>177</v>
       </c>
@@ -5637,18 +5896,21 @@
         <v>509</v>
       </c>
       <c r="I86" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L86" s="20" t="s">
+      <c r="K86" s="25"/>
+      <c r="L86" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M86" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>178</v>
       </c>
@@ -5674,18 +5936,21 @@
         <v>509</v>
       </c>
       <c r="I87" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L87" s="20" t="s">
+      <c r="K87" s="25"/>
+      <c r="L87" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M87" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>183</v>
       </c>
@@ -5705,17 +5970,20 @@
         <v>212</v>
       </c>
       <c r="I88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K88" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L88" s="7" t="s">
+      <c r="L88" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M88" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>232</v>
       </c>
@@ -5739,18 +6007,21 @@
         <v>211</v>
       </c>
       <c r="I89" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L89" s="37" t="s">
+      <c r="K89" s="34"/>
+      <c r="L89" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M89" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>233</v>
       </c>
@@ -5774,18 +6045,21 @@
         <v>211</v>
       </c>
       <c r="I90" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L90" s="37" t="s">
+      <c r="K90" s="34"/>
+      <c r="L90" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M90" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>234</v>
       </c>
@@ -5809,18 +6083,21 @@
         <v>211</v>
       </c>
       <c r="I91" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L91" s="37" t="s">
+      <c r="K91" s="34"/>
+      <c r="L91" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M91" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>235</v>
       </c>
@@ -5844,18 +6121,21 @@
         <v>211</v>
       </c>
       <c r="I92" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="37" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="L92" s="37" t="s">
+      <c r="K92" s="34"/>
+      <c r="L92" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M92" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>195</v>
       </c>
@@ -5875,17 +6155,20 @@
         <v>210</v>
       </c>
       <c r="I93" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K93" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L93" s="5" t="s">
+      <c r="L93" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M93" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>196</v>
       </c>
@@ -5905,17 +6188,20 @@
         <v>210</v>
       </c>
       <c r="I94" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K94" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L94" s="5" t="s">
+      <c r="L94" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M94" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>197</v>
       </c>
@@ -5935,17 +6221,20 @@
         <v>210</v>
       </c>
       <c r="I95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K95" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L95" s="5" t="s">
+      <c r="L95" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M95" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>202</v>
       </c>
@@ -5965,17 +6254,20 @@
         <v>209</v>
       </c>
       <c r="I96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K96" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L96" s="7" t="s">
+      <c r="L96" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M96" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>203</v>
       </c>
@@ -5995,17 +6287,20 @@
         <v>209</v>
       </c>
       <c r="I97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K97" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L97" s="7" t="s">
+      <c r="L97" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M97" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>245</v>
       </c>
@@ -6031,18 +6326,21 @@
         <v>510</v>
       </c>
       <c r="I98" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="L98" s="20" t="s">
+      <c r="K98" s="25"/>
+      <c r="L98" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M98" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>204</v>
       </c>
@@ -6062,17 +6360,20 @@
         <v>244</v>
       </c>
       <c r="I99" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K99" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L99" s="7" t="s">
+      <c r="L99" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M99" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>221</v>
       </c>
@@ -6092,17 +6393,20 @@
         <v>249</v>
       </c>
       <c r="I100" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K100" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L100" s="5" t="s">
+      <c r="L100" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M100" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>222</v>
       </c>
@@ -6122,17 +6426,20 @@
         <v>218</v>
       </c>
       <c r="I101" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K101" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L101" s="7" t="s">
+      <c r="L101" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M101" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>223</v>
       </c>
@@ -6152,17 +6459,20 @@
         <v>225</v>
       </c>
       <c r="I102" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K102" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M102" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>231</v>
       </c>
@@ -6188,16 +6498,19 @@
         <v>660</v>
       </c>
       <c r="I103" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="16" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J103" s="25"/>
       <c r="K103" s="25"/>
-      <c r="L103" s="20" t="s">
+      <c r="L103" s="25"/>
+      <c r="M103" s="20" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>184</v>
       </c>
@@ -6217,17 +6530,20 @@
         <v>240</v>
       </c>
       <c r="I104" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K104" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L104" s="5" t="s">
+      <c r="L104" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M104" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>185</v>
       </c>
@@ -6247,17 +6563,20 @@
         <v>240</v>
       </c>
       <c r="I105" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K105" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L105" s="5" t="s">
+      <c r="L105" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M105" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>186</v>
       </c>
@@ -6277,17 +6596,20 @@
         <v>240</v>
       </c>
       <c r="I106" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K106" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L106" s="5" t="s">
+      <c r="L106" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M106" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>187</v>
       </c>
@@ -6307,17 +6629,20 @@
         <v>240</v>
       </c>
       <c r="I107" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K107" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L107" s="5" t="s">
+      <c r="L107" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M107" s="5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>251</v>
       </c>
@@ -6337,17 +6662,20 @@
         <v>296</v>
       </c>
       <c r="I108" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K108" s="26" t="s">
+      <c r="L108" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L108" s="5" t="s">
+      <c r="M108" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>252</v>
       </c>
@@ -6367,17 +6695,20 @@
         <v>296</v>
       </c>
       <c r="I109" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K109" s="26" t="s">
+      <c r="L109" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L109" s="5" t="s">
+      <c r="M109" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>253</v>
       </c>
@@ -6397,17 +6728,20 @@
         <v>296</v>
       </c>
       <c r="I110" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K110" s="26" t="s">
+      <c r="L110" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L110" s="5" t="s">
+      <c r="M110" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>254</v>
       </c>
@@ -6427,17 +6761,20 @@
         <v>296</v>
       </c>
       <c r="I111" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K111" s="26" t="s">
+      <c r="L111" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L111" s="5" t="s">
+      <c r="M111" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>255</v>
       </c>
@@ -6457,17 +6794,20 @@
         <v>296</v>
       </c>
       <c r="I112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K112" s="26" t="s">
+      <c r="L112" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L112" s="5" t="s">
+      <c r="M112" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>256</v>
       </c>
@@ -6487,17 +6827,20 @@
         <v>296</v>
       </c>
       <c r="I113" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K113" s="26" t="s">
+      <c r="L113" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L113" s="5" t="s">
+      <c r="M113" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>257</v>
       </c>
@@ -6517,17 +6860,20 @@
         <v>296</v>
       </c>
       <c r="I114" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K114" s="26" t="s">
+      <c r="L114" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L114" s="5" t="s">
+      <c r="M114" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>258</v>
       </c>
@@ -6547,17 +6893,20 @@
         <v>296</v>
       </c>
       <c r="I115" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K115" s="26" t="s">
+      <c r="L115" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L115" s="5" t="s">
+      <c r="M115" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>259</v>
       </c>
@@ -6577,17 +6926,20 @@
         <v>296</v>
       </c>
       <c r="I116" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K116" s="26" t="s">
+      <c r="L116" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L116" s="5" t="s">
+      <c r="M116" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>260</v>
       </c>
@@ -6607,17 +6959,20 @@
         <v>296</v>
       </c>
       <c r="I117" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K117" s="26" t="s">
+      <c r="L117" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L117" s="5" t="s">
+      <c r="M117" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>261</v>
       </c>
@@ -6637,17 +6992,20 @@
         <v>296</v>
       </c>
       <c r="I118" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K118" s="26" t="s">
+      <c r="L118" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L118" s="5" t="s">
+      <c r="M118" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>262</v>
       </c>
@@ -6667,17 +7025,20 @@
         <v>296</v>
       </c>
       <c r="I119" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K119" s="26" t="s">
+      <c r="L119" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L119" s="5" t="s">
+      <c r="M119" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>263</v>
       </c>
@@ -6697,17 +7058,20 @@
         <v>296</v>
       </c>
       <c r="I120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K120" s="26" t="s">
+      <c r="L120" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L120" s="5" t="s">
+      <c r="M120" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>264</v>
       </c>
@@ -6727,17 +7091,20 @@
         <v>296</v>
       </c>
       <c r="I121" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K121" s="26" t="s">
+      <c r="L121" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L121" s="5" t="s">
+      <c r="M121" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>265</v>
       </c>
@@ -6757,17 +7124,20 @@
         <v>296</v>
       </c>
       <c r="I122" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K122" s="26" t="s">
+      <c r="L122" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L122" s="5" t="s">
+      <c r="M122" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>266</v>
       </c>
@@ -6787,17 +7157,20 @@
         <v>296</v>
       </c>
       <c r="I123" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K123" s="26" t="s">
+      <c r="L123" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L123" s="5" t="s">
+      <c r="M123" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>267</v>
       </c>
@@ -6817,17 +7190,20 @@
         <v>296</v>
       </c>
       <c r="I124" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K124" s="26" t="s">
+      <c r="L124" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L124" s="5" t="s">
+      <c r="M124" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>268</v>
       </c>
@@ -6847,17 +7223,20 @@
         <v>296</v>
       </c>
       <c r="I125" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K125" s="26" t="s">
+      <c r="L125" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L125" s="5" t="s">
+      <c r="M125" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>269</v>
       </c>
@@ -6877,17 +7256,20 @@
         <v>296</v>
       </c>
       <c r="I126" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K126" s="26" t="s">
+      <c r="L126" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L126" s="5" t="s">
+      <c r="M126" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>270</v>
       </c>
@@ -6907,17 +7289,20 @@
         <v>296</v>
       </c>
       <c r="I127" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K127" s="26" t="s">
+      <c r="L127" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L127" s="5" t="s">
+      <c r="M127" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>271</v>
       </c>
@@ -6937,17 +7322,20 @@
         <v>296</v>
       </c>
       <c r="I128" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K128" s="26" t="s">
+      <c r="L128" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L128" s="5" t="s">
+      <c r="M128" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>272</v>
       </c>
@@ -6967,17 +7355,20 @@
         <v>296</v>
       </c>
       <c r="I129" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K129" s="26" t="s">
+      <c r="L129" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L129" s="5" t="s">
+      <c r="M129" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>476</v>
       </c>
@@ -6997,19 +7388,22 @@
         <v>302</v>
       </c>
       <c r="I130" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" s="24">
-        <v>1</v>
-      </c>
-      <c r="K130" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J130" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" s="24">
+        <v>1</v>
+      </c>
+      <c r="L130" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L130" s="5" t="s">
+      <c r="M130" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>477</v>
       </c>
@@ -7029,19 +7423,22 @@
         <v>302</v>
       </c>
       <c r="I131" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" s="24">
-        <v>1</v>
-      </c>
-      <c r="K131" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" s="24">
+        <v>1</v>
+      </c>
+      <c r="L131" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L131" s="5" t="s">
+      <c r="M131" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>478</v>
       </c>
@@ -7061,19 +7458,22 @@
         <v>302</v>
       </c>
       <c r="I132" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" s="24">
-        <v>1</v>
-      </c>
-      <c r="K132" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" s="24">
+        <v>1</v>
+      </c>
+      <c r="L132" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L132" s="5" t="s">
+      <c r="M132" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>479</v>
       </c>
@@ -7093,19 +7493,22 @@
         <v>302</v>
       </c>
       <c r="I133" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" s="24">
-        <v>1</v>
-      </c>
-      <c r="K133" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" s="24">
+        <v>1</v>
+      </c>
+      <c r="L133" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L133" s="5" t="s">
+      <c r="M133" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>305</v>
       </c>
@@ -7127,14 +7530,17 @@
       <c r="I134" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K134" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L134" s="5" t="s">
+      <c r="J134" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M134" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>306</v>
       </c>
@@ -7156,14 +7562,17 @@
       <c r="I135" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K135" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L135" s="5" t="s">
+      <c r="J135" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M135" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>307</v>
       </c>
@@ -7185,14 +7594,17 @@
       <c r="I136" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K136" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L136" s="5" t="s">
+      <c r="J136" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M136" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>308</v>
       </c>
@@ -7214,14 +7626,17 @@
       <c r="I137" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K137" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L137" s="5" t="s">
+      <c r="J137" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M137" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>309</v>
       </c>
@@ -7243,14 +7658,17 @@
       <c r="I138" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K138" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L138" s="5" t="s">
+      <c r="J138" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M138" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>310</v>
       </c>
@@ -7272,14 +7690,17 @@
       <c r="I139" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K139" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L139" s="5" t="s">
+      <c r="J139" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M139" s="5" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>311</v>
       </c>
@@ -7301,14 +7722,17 @@
       <c r="I140" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K140" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L140" s="5" t="s">
+      <c r="J140" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M140" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>312</v>
       </c>
@@ -7330,14 +7754,17 @@
       <c r="I141" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L141" s="5" t="s">
+      <c r="J141" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M141" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>313</v>
       </c>
@@ -7359,14 +7786,17 @@
       <c r="I142" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L142" s="5" t="s">
+      <c r="J142" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M142" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>314</v>
       </c>
@@ -7388,14 +7818,17 @@
       <c r="I143" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L143" s="5" t="s">
+      <c r="J143" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M143" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>315</v>
       </c>
@@ -7417,14 +7850,17 @@
       <c r="I144" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L144" s="5" t="s">
+      <c r="J144" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M144" s="5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>316</v>
       </c>
@@ -7446,14 +7882,17 @@
       <c r="I145" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K145" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L145" s="5" t="s">
+      <c r="J145" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M145" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>317</v>
       </c>
@@ -7475,14 +7914,17 @@
       <c r="I146" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L146" s="5" t="s">
+      <c r="J146" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M146" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>318</v>
       </c>
@@ -7504,14 +7946,17 @@
       <c r="I147" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L147" s="5" t="s">
+      <c r="J147" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M147" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>350</v>
       </c>
@@ -7533,14 +7978,17 @@
       <c r="I148" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K148" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L148" s="7" t="s">
+      <c r="J148" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M148" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>351</v>
       </c>
@@ -7562,14 +8010,17 @@
       <c r="I149" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L149" s="7" t="s">
+      <c r="J149" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M149" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>352</v>
       </c>
@@ -7591,14 +8042,17 @@
       <c r="I150" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L150" s="7" t="s">
+      <c r="J150" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M150" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>357</v>
       </c>
@@ -7620,14 +8074,17 @@
       <c r="I151" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K151" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L151" s="7" t="s">
+      <c r="J151" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M151" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>358</v>
       </c>
@@ -7649,14 +8106,17 @@
       <c r="I152" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L152" s="7" t="s">
+      <c r="J152" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M152" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>359</v>
       </c>
@@ -7678,14 +8138,17 @@
       <c r="I153" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K153" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L153" s="7" t="s">
+      <c r="J153" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M153" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>375</v>
       </c>
@@ -7707,14 +8170,17 @@
       <c r="I154" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L154" s="5" t="s">
+      <c r="J154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M154" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>376</v>
       </c>
@@ -7736,14 +8202,17 @@
       <c r="I155" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K155" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L155" s="5" t="s">
+      <c r="J155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M155" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>377</v>
       </c>
@@ -7765,14 +8234,17 @@
       <c r="I156" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K156" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L156" s="5" t="s">
+      <c r="J156" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M156" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>389</v>
       </c>
@@ -7792,19 +8264,22 @@
         <v>388</v>
       </c>
       <c r="I157" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" s="24">
-        <v>1</v>
-      </c>
-      <c r="K157" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J157" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" s="24">
+        <v>1</v>
+      </c>
+      <c r="L157" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L157" s="5" t="s">
+      <c r="M157" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>390</v>
       </c>
@@ -7824,19 +8299,22 @@
         <v>388</v>
       </c>
       <c r="I158" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" s="24">
-        <v>1</v>
-      </c>
-      <c r="K158" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K158" s="24">
+        <v>1</v>
+      </c>
+      <c r="L158" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L158" s="5" t="s">
+      <c r="M158" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>391</v>
       </c>
@@ -7856,19 +8334,22 @@
         <v>388</v>
       </c>
       <c r="I159" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" s="24">
-        <v>1</v>
-      </c>
-      <c r="K159" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J159" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K159" s="24">
+        <v>1</v>
+      </c>
+      <c r="L159" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L159" s="5" t="s">
+      <c r="M159" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>392</v>
       </c>
@@ -7888,19 +8369,22 @@
         <v>388</v>
       </c>
       <c r="I160" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" s="24">
-        <v>1</v>
-      </c>
-      <c r="K160" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K160" s="24">
+        <v>1</v>
+      </c>
+      <c r="L160" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L160" s="5" t="s">
+      <c r="M160" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>393</v>
       </c>
@@ -7920,19 +8404,22 @@
         <v>388</v>
       </c>
       <c r="I161" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" s="24">
-        <v>1</v>
-      </c>
-      <c r="K161" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J161" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K161" s="24">
+        <v>1</v>
+      </c>
+      <c r="L161" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L161" s="5" t="s">
+      <c r="M161" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>394</v>
       </c>
@@ -7952,19 +8439,22 @@
         <v>388</v>
       </c>
       <c r="I162" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" s="24">
-        <v>1</v>
-      </c>
-      <c r="K162" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" s="24">
+        <v>1</v>
+      </c>
+      <c r="L162" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L162" s="5" t="s">
+      <c r="M162" s="5" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>395</v>
       </c>
@@ -7984,19 +8474,22 @@
         <v>388</v>
       </c>
       <c r="I163" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" s="24">
-        <v>1</v>
-      </c>
-      <c r="K163" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J163" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K163" s="24">
+        <v>1</v>
+      </c>
+      <c r="L163" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L163" s="5" t="s">
+      <c r="M163" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>396</v>
       </c>
@@ -8016,19 +8509,22 @@
         <v>388</v>
       </c>
       <c r="I164" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J164" s="24">
-        <v>1</v>
-      </c>
-      <c r="K164" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J164" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K164" s="24">
+        <v>1</v>
+      </c>
+      <c r="L164" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L164" s="5" t="s">
+      <c r="M164" s="5" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>397</v>
       </c>
@@ -8048,19 +8544,22 @@
         <v>388</v>
       </c>
       <c r="I165" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J165" s="24">
-        <v>1</v>
-      </c>
-      <c r="K165" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J165" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K165" s="24">
+        <v>1</v>
+      </c>
+      <c r="L165" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L165" s="5" t="s">
+      <c r="M165" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>398</v>
       </c>
@@ -8080,19 +8579,22 @@
         <v>388</v>
       </c>
       <c r="I166" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" s="24">
-        <v>1</v>
-      </c>
-      <c r="K166" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J166" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K166" s="24">
+        <v>1</v>
+      </c>
+      <c r="L166" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L166" s="5" t="s">
+      <c r="M166" s="5" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>399</v>
       </c>
@@ -8112,19 +8614,22 @@
         <v>388</v>
       </c>
       <c r="I167" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J167" s="24">
-        <v>1</v>
-      </c>
-      <c r="K167" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K167" s="24">
+        <v>1</v>
+      </c>
+      <c r="L167" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L167" s="5" t="s">
+      <c r="M167" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>400</v>
       </c>
@@ -8144,19 +8649,22 @@
         <v>388</v>
       </c>
       <c r="I168" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" s="24">
-        <v>1</v>
-      </c>
-      <c r="K168" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J168" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K168" s="24">
+        <v>1</v>
+      </c>
+      <c r="L168" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L168" s="5" t="s">
+      <c r="M168" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>401</v>
       </c>
@@ -8176,19 +8684,22 @@
         <v>388</v>
       </c>
       <c r="I169" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" s="24">
-        <v>1</v>
-      </c>
-      <c r="K169" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K169" s="24">
+        <v>1</v>
+      </c>
+      <c r="L169" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L169" s="5" t="s">
+      <c r="M169" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>402</v>
       </c>
@@ -8208,19 +8719,22 @@
         <v>388</v>
       </c>
       <c r="I170" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" s="24">
-        <v>1</v>
-      </c>
-      <c r="K170" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K170" s="24">
+        <v>1</v>
+      </c>
+      <c r="L170" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L170" s="5" t="s">
+      <c r="M170" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>405</v>
       </c>
@@ -8240,19 +8754,22 @@
         <v>388</v>
       </c>
       <c r="I171" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" s="24">
-        <v>1</v>
-      </c>
-      <c r="K171" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K171" s="24">
+        <v>1</v>
+      </c>
+      <c r="L171" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L171" s="5" t="s">
+      <c r="M171" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>404</v>
       </c>
@@ -8272,19 +8789,22 @@
         <v>388</v>
       </c>
       <c r="I172" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" s="24">
-        <v>1</v>
-      </c>
-      <c r="K172" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J172" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K172" s="24">
+        <v>1</v>
+      </c>
+      <c r="L172" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L172" s="5" t="s">
+      <c r="M172" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="37" t="s">
         <v>567</v>
       </c>
@@ -8308,19 +8828,22 @@
         <v>576</v>
       </c>
       <c r="I173" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" s="34">
-        <v>1</v>
-      </c>
-      <c r="K173" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K173" s="34">
+        <v>1</v>
+      </c>
+      <c r="L173" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L173" s="37" t="s">
+      <c r="M173" s="37" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>403</v>
       </c>
@@ -8340,19 +8863,22 @@
         <v>563</v>
       </c>
       <c r="I174" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" s="24">
-        <v>1</v>
-      </c>
-      <c r="K174" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J174" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K174" s="24">
+        <v>1</v>
+      </c>
+      <c r="L174" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L174" s="5" t="s">
+      <c r="M174" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>427</v>
       </c>
@@ -8374,14 +8900,17 @@
       <c r="I175" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K175" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L175" s="7" t="s">
+      <c r="J175" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M175" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>428</v>
       </c>
@@ -8403,14 +8932,17 @@
       <c r="I176" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K176" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L176" s="7" t="s">
+      <c r="J176" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M176" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>429</v>
       </c>
@@ -8432,14 +8964,17 @@
       <c r="I177" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K177" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L177" s="7" t="s">
+      <c r="J177" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M177" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>430</v>
       </c>
@@ -8461,14 +8996,17 @@
       <c r="I178" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K178" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L178" s="7" t="s">
+      <c r="J178" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M178" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>431</v>
       </c>
@@ -8490,14 +9028,17 @@
       <c r="I179" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K179" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L179" s="7" t="s">
+      <c r="J179" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M179" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>432</v>
       </c>
@@ -8519,14 +9060,17 @@
       <c r="I180" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K180" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L180" s="7" t="s">
+      <c r="J180" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M180" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:12" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="37" t="s">
         <v>480</v>
       </c>
@@ -8550,17 +9094,20 @@
         <v>612</v>
       </c>
       <c r="I181" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" s="34"/>
-      <c r="K181" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J181" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" s="34"/>
+      <c r="L181" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="L181" s="37" t="s">
+      <c r="M181" s="37" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="182" spans="1:12" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="37" t="s">
         <v>481</v>
       </c>
@@ -8584,17 +9131,20 @@
         <v>612</v>
       </c>
       <c r="I182" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" s="34"/>
-      <c r="K182" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J182" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K182" s="34"/>
+      <c r="L182" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="L182" s="37" t="s">
+      <c r="M182" s="37" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>577</v>
       </c>
@@ -8614,19 +9164,22 @@
         <v>580</v>
       </c>
       <c r="I183" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" s="24">
-        <v>1</v>
-      </c>
-      <c r="K183" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J183" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" s="24">
+        <v>1</v>
+      </c>
+      <c r="L183" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L183" s="15" t="s">
+      <c r="M183" s="15" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>578</v>
       </c>
@@ -8646,19 +9199,22 @@
         <v>580</v>
       </c>
       <c r="I184" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" s="24">
-        <v>1</v>
-      </c>
-      <c r="K184" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" s="24">
+        <v>1</v>
+      </c>
+      <c r="L184" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L184" s="14" t="s">
+      <c r="M184" s="14" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>579</v>
       </c>
@@ -8678,19 +9234,22 @@
         <v>580</v>
       </c>
       <c r="I185" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" s="24">
-        <v>1</v>
-      </c>
-      <c r="K185" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J185" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" s="24">
+        <v>1</v>
+      </c>
+      <c r="L185" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L185" s="14" t="s">
+      <c r="M185" s="14" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>454</v>
       </c>
@@ -8712,14 +9271,17 @@
       <c r="I186" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K186" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L186" s="5" t="s">
+      <c r="J186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M186" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>488</v>
       </c>
@@ -8741,14 +9303,17 @@
       <c r="I187" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K187" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L187" s="5" t="s">
+      <c r="J187" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M187" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>491</v>
       </c>
@@ -8768,20 +9333,23 @@
         <v>492</v>
       </c>
       <c r="I188" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J188" s="24">
+      <c r="K188" s="24">
         <v>3</v>
       </c>
-      <c r="K188" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L188" s="7" t="s">
+      <c r="L188" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M188" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>500</v>
       </c>
@@ -8801,19 +9369,22 @@
         <v>495</v>
       </c>
       <c r="I189" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" s="24">
+        <v>0</v>
+      </c>
+      <c r="J189" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K189" s="24">
         <v>3</v>
       </c>
-      <c r="K189" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L189" s="5" t="s">
+      <c r="L189" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M189" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>501</v>
       </c>
@@ -8833,19 +9404,22 @@
         <v>495</v>
       </c>
       <c r="I190" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" s="24">
+        <v>0</v>
+      </c>
+      <c r="J190" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K190" s="24">
         <v>3</v>
       </c>
-      <c r="K190" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L190" s="5" t="s">
+      <c r="L190" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M190" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>502</v>
       </c>
@@ -8865,19 +9439,22 @@
         <v>495</v>
       </c>
       <c r="I191" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J191" s="24">
+        <v>0</v>
+      </c>
+      <c r="J191" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K191" s="24">
         <v>3</v>
       </c>
-      <c r="K191" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L191" s="5" t="s">
+      <c r="L191" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M191" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>516</v>
       </c>
@@ -8899,14 +9476,17 @@
       <c r="I192" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K192" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L192" s="7" t="s">
+      <c r="J192" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M192" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>517</v>
       </c>
@@ -8928,14 +9508,17 @@
       <c r="I193" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K193" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L193" s="7" t="s">
+      <c r="J193" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M193" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>518</v>
       </c>
@@ -8957,14 +9540,17 @@
       <c r="I194" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K194" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L194" s="7" t="s">
+      <c r="J194" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M194" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>519</v>
       </c>
@@ -8986,14 +9572,17 @@
       <c r="I195" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K195" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L195" s="7" t="s">
+      <c r="J195" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M195" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>520</v>
       </c>
@@ -9015,14 +9604,17 @@
       <c r="I196" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K196" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L196" s="7" t="s">
+      <c r="J196" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M196" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>521</v>
       </c>
@@ -9044,14 +9636,17 @@
       <c r="I197" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K197" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L197" s="7" t="s">
+      <c r="J197" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M197" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>528</v>
       </c>
@@ -9071,20 +9666,23 @@
         <v>531</v>
       </c>
       <c r="I198" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J198" s="24">
+      <c r="K198" s="24">
         <v>3</v>
       </c>
-      <c r="K198" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L198" s="7" t="s">
+      <c r="L198" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M198" s="7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>533</v>
       </c>
@@ -9104,20 +9702,23 @@
         <v>537</v>
       </c>
       <c r="I199" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J199" s="24">
-        <v>1</v>
-      </c>
-      <c r="K199" s="24" t="s">
+      <c r="K199" s="24">
+        <v>1</v>
+      </c>
+      <c r="L199" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L199" s="5" t="s">
+      <c r="M199" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>534</v>
       </c>
@@ -9137,20 +9738,23 @@
         <v>537</v>
       </c>
       <c r="I200" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J200" s="24">
-        <v>1</v>
-      </c>
-      <c r="K200" s="24" t="s">
+      <c r="K200" s="24">
+        <v>1</v>
+      </c>
+      <c r="L200" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L200" s="5" t="s">
+      <c r="M200" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>538</v>
       </c>
@@ -9170,20 +9774,23 @@
         <v>537</v>
       </c>
       <c r="I201" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J201" s="24">
-        <v>1</v>
-      </c>
-      <c r="K201" s="24" t="s">
+      <c r="K201" s="24">
+        <v>1</v>
+      </c>
+      <c r="L201" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L201" s="5" t="s">
+      <c r="M201" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>539</v>
       </c>
@@ -9203,20 +9810,23 @@
         <v>537</v>
       </c>
       <c r="I202" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="J202" s="24">
-        <v>1</v>
-      </c>
-      <c r="K202" s="24" t="s">
+      <c r="K202" s="24">
+        <v>1</v>
+      </c>
+      <c r="L202" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L202" s="5" t="s">
+      <c r="M202" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>543</v>
       </c>
@@ -9236,19 +9846,22 @@
         <v>537</v>
       </c>
       <c r="I203" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" s="24">
-        <v>1</v>
-      </c>
-      <c r="K203" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J203" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K203" s="24">
+        <v>1</v>
+      </c>
+      <c r="L203" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L203" s="5" t="s">
+      <c r="M203" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>544</v>
       </c>
@@ -9268,19 +9881,22 @@
         <v>537</v>
       </c>
       <c r="I204" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="24">
-        <v>1</v>
-      </c>
-      <c r="K204" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J204" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K204" s="24">
+        <v>1</v>
+      </c>
+      <c r="L204" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L204" s="5" t="s">
+      <c r="M204" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>548</v>
       </c>
@@ -9300,19 +9916,22 @@
         <v>537</v>
       </c>
       <c r="I205" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="24">
-        <v>1</v>
-      </c>
-      <c r="K205" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J205" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K205" s="24">
+        <v>1</v>
+      </c>
+      <c r="L205" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L205" s="5" t="s">
+      <c r="M205" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>549</v>
       </c>
@@ -9332,19 +9951,22 @@
         <v>537</v>
       </c>
       <c r="I206" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="24">
-        <v>1</v>
-      </c>
-      <c r="K206" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J206" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K206" s="24">
+        <v>1</v>
+      </c>
+      <c r="L206" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L206" s="5" t="s">
+      <c r="M206" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>554</v>
       </c>
@@ -9364,19 +9986,22 @@
         <v>537</v>
       </c>
       <c r="I207" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="24">
-        <v>1</v>
-      </c>
-      <c r="K207" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J207" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K207" s="24">
+        <v>1</v>
+      </c>
+      <c r="L207" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L207" s="5" t="s">
+      <c r="M207" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>553</v>
       </c>
@@ -9396,19 +10021,22 @@
         <v>537</v>
       </c>
       <c r="I208" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="24">
-        <v>1</v>
-      </c>
-      <c r="K208" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J208" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K208" s="24">
+        <v>1</v>
+      </c>
+      <c r="L208" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L208" s="5" t="s">
+      <c r="M208" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>558</v>
       </c>
@@ -9428,19 +10056,22 @@
         <v>537</v>
       </c>
       <c r="I209" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" s="24">
-        <v>1</v>
-      </c>
-      <c r="K209" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J209" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K209" s="24">
+        <v>1</v>
+      </c>
+      <c r="L209" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L209" s="5" t="s">
+      <c r="M209" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>559</v>
       </c>
@@ -9460,19 +10091,22 @@
         <v>537</v>
       </c>
       <c r="I210" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" s="24">
-        <v>1</v>
-      </c>
-      <c r="K210" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J210" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K210" s="24">
+        <v>1</v>
+      </c>
+      <c r="L210" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L210" s="5" t="s">
+      <c r="M210" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>569</v>
       </c>
@@ -9492,19 +10126,22 @@
         <v>537</v>
       </c>
       <c r="I211" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" s="24">
-        <v>1</v>
-      </c>
-      <c r="K211" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J211" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K211" s="24">
+        <v>1</v>
+      </c>
+      <c r="L211" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L211" s="5" t="s">
+      <c r="M211" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>571</v>
       </c>
@@ -9524,19 +10161,22 @@
         <v>537</v>
       </c>
       <c r="I212" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" s="24">
-        <v>1</v>
-      </c>
-      <c r="K212" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J212" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K212" s="24">
+        <v>1</v>
+      </c>
+      <c r="L212" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L212" s="5" t="s">
+      <c r="M212" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>572</v>
       </c>
@@ -9556,19 +10196,22 @@
         <v>537</v>
       </c>
       <c r="I213" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="24">
-        <v>1</v>
-      </c>
-      <c r="K213" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J213" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K213" s="24">
+        <v>1</v>
+      </c>
+      <c r="L213" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="L213" s="5" t="s">
+      <c r="M213" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>581</v>
       </c>
@@ -9588,19 +10231,22 @@
         <v>593</v>
       </c>
       <c r="I214" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="24">
-        <v>1</v>
-      </c>
-      <c r="K214" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J214" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K214" s="24">
+        <v>1</v>
+      </c>
+      <c r="L214" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L214" s="43" t="s">
+      <c r="M214" s="43" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>582</v>
       </c>
@@ -9620,19 +10266,22 @@
         <v>593</v>
       </c>
       <c r="I215" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="24">
-        <v>1</v>
-      </c>
-      <c r="K215" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J215" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K215" s="24">
+        <v>1</v>
+      </c>
+      <c r="L215" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L215" s="43" t="s">
+      <c r="M215" s="43" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>583</v>
       </c>
@@ -9652,19 +10301,22 @@
         <v>593</v>
       </c>
       <c r="I216" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="24">
-        <v>1</v>
-      </c>
-      <c r="K216" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J216" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K216" s="24">
+        <v>1</v>
+      </c>
+      <c r="L216" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L216" s="43" t="s">
+      <c r="M216" s="43" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>584</v>
       </c>
@@ -9684,19 +10336,22 @@
         <v>593</v>
       </c>
       <c r="I217" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="24">
-        <v>1</v>
-      </c>
-      <c r="K217" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J217" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K217" s="24">
+        <v>1</v>
+      </c>
+      <c r="L217" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L217" s="43" t="s">
+      <c r="M217" s="43" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>585</v>
       </c>
@@ -9716,19 +10371,22 @@
         <v>593</v>
       </c>
       <c r="I218" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="24">
-        <v>1</v>
-      </c>
-      <c r="K218" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J218" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K218" s="24">
+        <v>1</v>
+      </c>
+      <c r="L218" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L218" s="43" t="s">
+      <c r="M218" s="43" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>586</v>
       </c>
@@ -9748,19 +10406,22 @@
         <v>593</v>
       </c>
       <c r="I219" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="24">
-        <v>1</v>
-      </c>
-      <c r="K219" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J219" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K219" s="24">
+        <v>1</v>
+      </c>
+      <c r="L219" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="L219" s="43" t="s">
+      <c r="M219" s="43" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>601</v>
       </c>
@@ -9782,14 +10443,17 @@
       <c r="I220" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K220" s="24" t="s">
+      <c r="J220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="L220" s="5" t="s">
+      <c r="M220" s="5" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>606</v>
       </c>
@@ -9809,16 +10473,19 @@
         <v>608</v>
       </c>
       <c r="I221" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K221" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J221" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="L221" s="5" t="s">
+      <c r="M221" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>607</v>
       </c>
@@ -9838,16 +10505,19 @@
         <v>608</v>
       </c>
       <c r="I222" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K222" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J222" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="L222" s="5" t="s">
+      <c r="M222" s="5" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>617</v>
       </c>
@@ -9869,17 +10539,20 @@
       <c r="I223" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J223" s="24">
+      <c r="J223" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K223" s="24">
         <v>3</v>
       </c>
-      <c r="K223" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L223" s="5" t="s">
+      <c r="L223" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M223" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>618</v>
       </c>
@@ -9901,17 +10574,20 @@
       <c r="I224" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J224" s="24">
+      <c r="J224" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K224" s="24">
         <v>3</v>
       </c>
-      <c r="K224" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L224" s="5" t="s">
+      <c r="L224" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M224" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>621</v>
       </c>
@@ -9931,19 +10607,22 @@
         <v>615</v>
       </c>
       <c r="I225" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" s="24">
+        <v>0</v>
+      </c>
+      <c r="J225" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K225" s="24">
         <v>3</v>
       </c>
-      <c r="K225" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L225" s="5" t="s">
+      <c r="L225" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M225" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>621</v>
       </c>
@@ -9963,19 +10642,22 @@
         <v>615</v>
       </c>
       <c r="I226" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" s="24">
+        <v>0</v>
+      </c>
+      <c r="J226" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K226" s="24">
         <v>3</v>
       </c>
-      <c r="K226" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L226" s="5" t="s">
+      <c r="L226" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M226" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>528</v>
       </c>
@@ -9997,17 +10679,20 @@
       <c r="I227" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J227" s="24">
+      <c r="J227" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K227" s="24">
         <v>3</v>
       </c>
-      <c r="K227" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L227" s="5" t="s">
+      <c r="L227" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M227" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>622</v>
       </c>
@@ -10029,17 +10714,20 @@
       <c r="I228" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J228" s="24">
+      <c r="J228" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K228" s="24">
         <v>3</v>
       </c>
-      <c r="K228" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L228" s="5" t="s">
+      <c r="L228" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M228" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>622</v>
       </c>
@@ -10061,17 +10749,20 @@
       <c r="I229" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J229" s="24">
+      <c r="J229" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K229" s="24">
         <v>3</v>
       </c>
-      <c r="K229" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L229" s="5" t="s">
+      <c r="L229" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M229" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>624</v>
       </c>
@@ -10091,19 +10782,22 @@
         <v>632</v>
       </c>
       <c r="I230" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="24">
+        <v>0</v>
+      </c>
+      <c r="J230" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K230" s="24">
         <v>3</v>
       </c>
-      <c r="K230" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L230" s="5" t="s">
+      <c r="L230" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M230" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>626</v>
       </c>
@@ -10123,19 +10817,22 @@
         <v>632</v>
       </c>
       <c r="I231" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="24">
+        <v>0</v>
+      </c>
+      <c r="J231" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" s="24">
         <v>3</v>
       </c>
-      <c r="K231" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L231" s="5" t="s">
+      <c r="L231" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M231" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>628</v>
       </c>
@@ -10157,17 +10854,20 @@
       <c r="I232" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J232" s="24">
+      <c r="J232" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K232" s="24">
         <v>3</v>
       </c>
-      <c r="K232" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L232" s="5" t="s">
+      <c r="L232" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M232" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>630</v>
       </c>
@@ -10189,17 +10889,20 @@
       <c r="I233" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J233" s="24">
+      <c r="J233" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K233" s="24">
         <v>3</v>
       </c>
-      <c r="K233" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L233" s="5" t="s">
+      <c r="L233" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M233" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>624</v>
       </c>
@@ -10219,19 +10922,22 @@
         <v>632</v>
       </c>
       <c r="I234" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="24">
+        <v>0</v>
+      </c>
+      <c r="J234" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K234" s="24">
         <v>3</v>
       </c>
-      <c r="K234" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L234" s="5" t="s">
+      <c r="L234" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M234" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>626</v>
       </c>
@@ -10251,19 +10957,22 @@
         <v>632</v>
       </c>
       <c r="I235" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="24">
+        <v>0</v>
+      </c>
+      <c r="J235" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K235" s="24">
         <v>3</v>
       </c>
-      <c r="K235" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L235" s="5" t="s">
+      <c r="L235" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M235" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>628</v>
       </c>
@@ -10285,17 +10994,20 @@
       <c r="I236" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J236" s="24">
+      <c r="J236" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K236" s="24">
         <v>3</v>
       </c>
-      <c r="K236" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L236" s="5" t="s">
+      <c r="L236" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M236" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>630</v>
       </c>
@@ -10317,17 +11029,20 @@
       <c r="I237" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J237" s="24">
+      <c r="J237" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K237" s="24">
         <v>3</v>
       </c>
-      <c r="K237" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L237" s="5" t="s">
+      <c r="L237" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M237" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>635</v>
       </c>
@@ -10349,14 +11064,17 @@
       <c r="I238" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K238" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L238" s="7" t="s">
+      <c r="J238" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M238" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>636</v>
       </c>
@@ -10378,14 +11096,17 @@
       <c r="I239" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K239" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L239" s="7" t="s">
+      <c r="J239" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M239" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>637</v>
       </c>
@@ -10407,14 +11128,17 @@
       <c r="I240" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K240" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L240" s="7" t="s">
+      <c r="J240" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M240" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>638</v>
       </c>
@@ -10436,14 +11160,17 @@
       <c r="I241" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K241" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L241" s="7" t="s">
+      <c r="J241" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M241" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>639</v>
       </c>
@@ -10465,14 +11192,17 @@
       <c r="I242" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K242" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L242" s="7" t="s">
+      <c r="J242" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M242" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>640</v>
       </c>
@@ -10494,14 +11224,17 @@
       <c r="I243" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="K243" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L243" s="7" t="s">
+      <c r="J243" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M243" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>650</v>
       </c>
@@ -10521,19 +11254,22 @@
         <v>651</v>
       </c>
       <c r="I244" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" s="24">
+        <v>0</v>
+      </c>
+      <c r="J244" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K244" s="24">
         <v>3</v>
       </c>
-      <c r="K244" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L244" s="5" t="s">
+      <c r="L244" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M244" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>649</v>
       </c>
@@ -10553,19 +11289,22 @@
         <v>651</v>
       </c>
       <c r="I245" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" s="24">
+        <v>0</v>
+      </c>
+      <c r="J245" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K245" s="24">
         <v>3</v>
       </c>
-      <c r="K245" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L245" s="5" t="s">
+      <c r="L245" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M245" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>661</v>
       </c>
@@ -10585,19 +11324,22 @@
         <v>669</v>
       </c>
       <c r="I246" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" s="24">
+        <v>0</v>
+      </c>
+      <c r="J246" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K246" s="24">
         <v>3</v>
       </c>
-      <c r="K246" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L246" s="5" t="s">
+      <c r="L246" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M246" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>662</v>
       </c>
@@ -10617,19 +11359,22 @@
         <v>669</v>
       </c>
       <c r="I247" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" s="24">
+        <v>0</v>
+      </c>
+      <c r="J247" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K247" s="24">
         <v>3</v>
       </c>
-      <c r="K247" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L247" s="5" t="s">
+      <c r="L247" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M247" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>663</v>
       </c>
@@ -10649,19 +11394,22 @@
         <v>669</v>
       </c>
       <c r="I248" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" s="24">
+        <v>0</v>
+      </c>
+      <c r="J248" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K248" s="24">
         <v>3</v>
       </c>
-      <c r="K248" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L248" s="5" t="s">
+      <c r="L248" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M248" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>664</v>
       </c>
@@ -10681,19 +11429,22 @@
         <v>669</v>
       </c>
       <c r="I249" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" s="24">
+        <v>0</v>
+      </c>
+      <c r="J249" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K249" s="24">
         <v>3</v>
       </c>
-      <c r="K249" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L249" s="5" t="s">
+      <c r="L249" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M249" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>661</v>
       </c>
@@ -10713,19 +11464,22 @@
         <v>670</v>
       </c>
       <c r="I250" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" s="24">
+        <v>0</v>
+      </c>
+      <c r="J250" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K250" s="24">
         <v>3</v>
       </c>
-      <c r="K250" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L250" s="5" t="s">
+      <c r="L250" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M250" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>662</v>
       </c>
@@ -10745,19 +11499,22 @@
         <v>670</v>
       </c>
       <c r="I251" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" s="24">
+        <v>0</v>
+      </c>
+      <c r="J251" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K251" s="24">
         <v>3</v>
       </c>
-      <c r="K251" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L251" s="5" t="s">
+      <c r="L251" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M251" s="5" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>663</v>
       </c>
@@ -10777,19 +11534,22 @@
         <v>670</v>
       </c>
       <c r="I252" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" s="24">
+        <v>0</v>
+      </c>
+      <c r="J252" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K252" s="24">
         <v>3</v>
       </c>
-      <c r="K252" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L252" s="5" t="s">
+      <c r="L252" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M252" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>664</v>
       </c>
@@ -10809,20 +11569,23 @@
         <v>670</v>
       </c>
       <c r="I253" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" s="24">
+        <v>0</v>
+      </c>
+      <c r="J253" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K253" s="24">
         <v>3</v>
       </c>
-      <c r="K253" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L253" s="5" t="s">
+      <c r="L253" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M253" s="5" t="s">
         <v>532</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L245" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M253" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
